--- a/ML_muscle.xlsx
+++ b/ML_muscle.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\knowakow\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knowakow\MLCE1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282BDE32-2AA7-4B1C-AE7B-22BDF801ECED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBFBFFA-2396-42C1-A0DB-3CE14C6FB73B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="11415" activeTab="1" xr2:uid="{82B21A4B-CEC6-4812-A365-675B49A19042}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="11415" firstSheet="1" activeTab="5" xr2:uid="{82B21A4B-CEC6-4812-A365-675B49A19042}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="16" r:id="rId1"/>
-    <sheet name="ML" sheetId="4" r:id="rId2"/>
+    <sheet name="Overview" sheetId="4" r:id="rId2"/>
     <sheet name="Force" sheetId="5" r:id="rId3"/>
     <sheet name="Sarcomere Smith" sheetId="15" r:id="rId4"/>
     <sheet name="Sarcomere" sheetId="3" r:id="rId5"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="629">
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3130447/</t>
   </si>
@@ -2252,6 +2252,9 @@
   </si>
   <si>
     <t>10.1016/j.jbiomech.2005.02.010</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -2759,10 +2762,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2791,18 +2790,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2825,6 +2812,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -3830,8 +3833,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E67A50C-E8EB-4BDF-89BC-77928AC4B44A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{9EAC1A1D-271E-4CE0-B112-8BF8F70F5992}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -3839,7 +3842,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{01273397-8524-4F1D-9953-46FFB960BF49}" type="YVALUE">
+                    <a:fld id="{B616AB7B-E299-4CAD-A854-2855B3B754C9}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALEUR Y]</a:t>
@@ -3872,21 +3875,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B019C68-9939-47CB-9839-AFFC89902DF2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{82C97954-99C8-4672-98D8-2A7D5CF88860}" type="CELLRANGE">
+                      <a:rPr lang="en-CA"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-CA" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{0B205897-B06C-4462-9BB5-0AF3BBE1387F}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{9548ED32-4DC2-4BC3-A8B6-42EDA42E5D7B}" type="YVALUE">
+                      <a:rPr lang="en-CA" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALEUR Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-CA" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4059,8 +4062,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C584F65-5112-4E61-93AA-AB78805C88B1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{5828CD68-0299-4D0F-988C-752F844A4A34}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -4068,7 +4071,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{A87C4E46-7AE2-49E1-B669-4A724A0B367B}" type="YVALUE">
+                    <a:fld id="{E2E2FFF2-8FA3-4F4E-A957-1F635F0CF9AB}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALEUR Y]</a:t>
@@ -4101,21 +4104,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53D5C800-F09D-47FA-A060-8E03C4E954FF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1A8825FB-3096-41BE-BAB7-1A74FE5FE31F}" type="CELLRANGE">
+                      <a:rPr lang="en-CA"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-CA" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{65BA37ED-AE76-4E69-8C2A-93385022A046}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{634B8FAA-7385-40C0-8E80-21247F194F37}" type="YVALUE">
+                      <a:rPr lang="en-CA" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALEUR Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-CA" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4274,8 +4277,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FDB5AD29-4215-4754-BD91-28651FD31AC4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6BDE9395-8EEA-4AD6-B619-7AEAA199612A}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -4283,7 +4286,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{AC73E509-1A18-457E-9F86-25487BB5C28E}" type="YVALUE">
+                    <a:fld id="{3E5E32C1-BBA6-405F-9368-81D0432CCAC6}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALEUR Y]</a:t>
@@ -4316,21 +4319,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD3E0D4E-89BB-45B1-8BC7-2EC4CFEE3DB7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D3B7A3C4-1446-4A77-90F7-A10CE5F5028B}" type="CELLRANGE">
+                      <a:rPr lang="en-CA"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-CA" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{EFA354CF-D1BF-4AE7-AB7F-9FAB015AF90D}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{F49B4E47-A00B-40A9-8C11-397E64A610AB}" type="YVALUE">
+                      <a:rPr lang="en-CA" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALEUR Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-CA" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4503,8 +4506,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49747816-03F1-408A-B9A2-186F4A3381E9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{9FDF87EC-5903-4A52-8CA5-A0B1820FA171}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -4512,7 +4515,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{30129F7F-377B-4ACA-B336-5744C4219928}" type="YVALUE">
+                    <a:fld id="{8F1910F6-200F-432D-8608-76963003F9DA}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALEUR Y]</a:t>
@@ -4551,8 +4554,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{569F4086-89D1-4DC6-AC6B-FA09F7782FE8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{3E74EF34-EC97-43A2-BEC4-510F42DC3C2A}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -4560,7 +4563,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{DAC610E3-BD35-497A-B358-FCB70C7F7F1A}" type="YVALUE">
+                    <a:fld id="{FB59A94B-53F7-4180-8C23-3287C9D036DE}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALEUR Y]</a:t>
@@ -16647,17 +16650,17 @@
         <v>588</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+    <row r="2" spans="1:4" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
         <v>611</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="87" t="s">
         <v>589</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="87" t="s">
         <v>590</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="87" t="s">
         <v>624</v>
       </c>
     </row>
@@ -16698,7 +16701,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="88" t="s">
         <v>594</v>
       </c>
       <c r="B6">
@@ -16721,7 +16724,7 @@
       <c r="C7" t="s">
         <v>600</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="85" t="s">
         <v>23</v>
       </c>
     </row>
@@ -16735,7 +16738,7 @@
       <c r="C8" t="s">
         <v>601</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="85" t="s">
         <v>55</v>
       </c>
     </row>
@@ -16749,7 +16752,7 @@
       <c r="C9" t="s">
         <v>604</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="86" t="s">
         <v>595</v>
       </c>
     </row>
@@ -16763,7 +16766,7 @@
       <c r="C10" t="s">
         <v>606</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="86" t="s">
         <v>596</v>
       </c>
     </row>
@@ -16777,7 +16780,7 @@
       <c r="C11" t="s">
         <v>607</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="86" t="s">
         <v>1</v>
       </c>
     </row>
@@ -16791,7 +16794,7 @@
       <c r="C12" t="s">
         <v>610</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="86" t="s">
         <v>0</v>
       </c>
     </row>
@@ -16824,7 +16827,7 @@
       <c r="C15" t="s">
         <v>612</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="86" t="s">
         <v>534</v>
       </c>
     </row>
@@ -16838,7 +16841,7 @@
       <c r="C16" t="s">
         <v>613</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="86" t="s">
         <v>579</v>
       </c>
     </row>
@@ -17753,62 +17756,62 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>586</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
     </row>
     <row r="5" spans="1:14" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="70" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="70" t="s">
         <v>509</v>
       </c>
-      <c r="K5" s="72" t="s">
+      <c r="K5" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="M5" s="72" t="s">
+      <c r="M5" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="N5" s="72" t="s">
+      <c r="N5" s="70" t="s">
         <v>197</v>
       </c>
     </row>
@@ -20222,36 +20225,36 @@
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="79" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="79" t="s">
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="79" t="s">
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="77" t="s">
         <v>515</v>
       </c>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="79" t="s">
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="81"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="12" t="s">
         <v>216</v>
       </c>
@@ -20291,15 +20294,15 @@
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="80" t="s">
         <v>207</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="82" t="s">
+      <c r="E8" s="81"/>
+      <c r="F8" s="80" t="s">
         <v>207</v>
       </c>
       <c r="G8" s="13"/>
@@ -20307,30 +20310,30 @@
         <v>208</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="82" t="s">
+      <c r="J8" s="80" t="s">
         <v>207</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="M8" s="83"/>
-      <c r="N8" s="82" t="s">
+      <c r="M8" s="81"/>
+      <c r="N8" s="80" t="s">
         <v>207</v>
       </c>
       <c r="O8" s="13"/>
       <c r="P8" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="82" t="s">
+      <c r="Q8" s="81"/>
+      <c r="R8" s="80" t="s">
         <v>207</v>
       </c>
       <c r="S8" s="13"/>
       <c r="T8" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="U8" s="83"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="12" t="s">
         <v>207</v>
       </c>
@@ -20927,28 +20930,28 @@
       <c r="A16" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="84">
+      <c r="B16" s="82">
         <v>5870</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="83">
         <v>2310</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="83">
         <v>4503</v>
       </c>
-      <c r="E16" s="86">
+      <c r="E16" s="84">
         <v>2071</v>
       </c>
-      <c r="F16" s="84">
+      <c r="F16" s="82">
         <v>0.91</v>
       </c>
-      <c r="G16" s="85">
+      <c r="G16" s="83">
         <v>0.32</v>
       </c>
-      <c r="H16" s="85">
+      <c r="H16" s="83">
         <v>0.79</v>
       </c>
-      <c r="I16" s="85">
+      <c r="I16" s="83">
         <v>0.33</v>
       </c>
       <c r="J16" s="3">
@@ -21064,34 +21067,34 @@
       <c r="A17" t="s">
         <v>214</v>
       </c>
-      <c r="J17" s="84">
+      <c r="J17" s="82">
         <v>158</v>
       </c>
-      <c r="K17" s="85">
+      <c r="K17" s="83">
         <v>30</v>
       </c>
-      <c r="L17" s="85">
+      <c r="L17" s="83">
         <v>180</v>
       </c>
-      <c r="M17" s="86">
+      <c r="M17" s="84">
         <v>34</v>
       </c>
-      <c r="N17" s="84">
+      <c r="N17" s="82">
         <v>5.85</v>
       </c>
-      <c r="O17" s="85">
+      <c r="O17" s="83">
         <v>0.12</v>
       </c>
-      <c r="P17" s="85">
+      <c r="P17" s="83">
         <v>5.96</v>
       </c>
-      <c r="Q17" s="86">
+      <c r="Q17" s="84">
         <v>0.1</v>
       </c>
-      <c r="R17" s="84"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="86"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="84"/>
       <c r="Z17">
         <v>2.67</v>
       </c>
@@ -22134,8 +22137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495FA65C-58A7-4454-B9BE-F7A49D102131}">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22162,12 +22165,12 @@
         <v>1</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>0</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="73" t="s">
         <v>119</v>
       </c>
       <c r="C2" s="9"/>
@@ -22226,7 +22229,7 @@
       <c r="A3" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="74" t="s">
         <v>576</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -22238,13 +22241,13 @@
       <c r="E3" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="70" t="s">
         <v>193</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="70" t="s">
         <v>474</v>
       </c>
       <c r="I3" s="26" t="s">
@@ -22288,7 +22291,7 @@
       <c r="A4" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="77">
+      <c r="B4" s="75">
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -22333,7 +22336,7 @@
       <c r="A5" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="77">
+      <c r="B5" s="75">
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -22380,7 +22383,7 @@
       <c r="A6" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="77">
+      <c r="B6" s="75">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -22436,7 +22439,7 @@
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="77">
+      <c r="B7" s="75">
         <v>3</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -22491,7 +22494,7 @@
       <c r="A8" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="77">
+      <c r="B8" s="75">
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -22541,7 +22544,7 @@
       <c r="A9" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="77">
+      <c r="B9" s="75">
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -22597,7 +22600,7 @@
       <c r="A10" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="77">
+      <c r="B10" s="75">
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -22650,7 +22653,7 @@
       <c r="A11" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="77">
+      <c r="B11" s="75">
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -22701,7 +22704,7 @@
       <c r="A12" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="77">
+      <c r="B12" s="75">
         <v>1</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -22742,7 +22745,7 @@
       <c r="A13" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="77">
+      <c r="B13" s="75">
         <v>5</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -22802,7 +22805,7 @@
       <c r="A14" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="77">
+      <c r="B14" s="75">
         <v>5</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -22860,7 +22863,7 @@
       <c r="A15" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="77">
+      <c r="B15" s="75">
         <v>5</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -22903,7 +22906,7 @@
       <c r="A16" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="77">
+      <c r="B16" s="75">
         <v>5</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -22953,7 +22956,7 @@
       <c r="A17" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="77">
+      <c r="B17" s="75">
         <v>4</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -23011,7 +23014,7 @@
       <c r="A18" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="77">
+      <c r="B18" s="75">
         <v>4</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -23065,7 +23068,7 @@
       <c r="A19" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="77">
+      <c r="B19" s="75">
         <v>3</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -23113,7 +23116,7 @@
       <c r="A20" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="77">
+      <c r="B20" s="75">
         <v>3</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -23161,7 +23164,7 @@
       <c r="A21" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="77">
+      <c r="B21" s="75">
         <v>5</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -23220,7 +23223,7 @@
       <c r="A22" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="77">
+      <c r="B22" s="75">
         <v>6</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -23275,7 +23278,7 @@
       <c r="A23" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="77">
+      <c r="B23" s="75">
         <v>5</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -23315,7 +23318,7 @@
       <c r="A24" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="77">
+      <c r="B24" s="75">
         <v>4</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -23362,7 +23365,7 @@
       <c r="A25" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="77">
+      <c r="B25" s="75">
         <v>4</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -23417,7 +23420,7 @@
       <c r="A26" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="77">
+      <c r="B26" s="75">
         <v>4</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -23470,7 +23473,7 @@
       <c r="A27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="77">
+      <c r="B27" s="75">
         <v>3</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -23506,7 +23509,7 @@
       <c r="A28" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="77">
+      <c r="B28" s="75">
         <v>6</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -23542,7 +23545,7 @@
       <c r="A29" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="77">
+      <c r="B29" s="75">
         <v>5</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -23578,7 +23581,7 @@
       <c r="A30" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="77">
+      <c r="B30" s="75">
         <v>5</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -23614,7 +23617,7 @@
       <c r="A31" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="77">
+      <c r="B31" s="75">
         <v>2</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -23650,7 +23653,7 @@
       <c r="A32" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="77">
+      <c r="B32" s="75">
         <v>2</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -23686,7 +23689,7 @@
       <c r="A33" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="77">
+      <c r="B33" s="75">
         <v>1</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -23722,7 +23725,7 @@
       <c r="A34" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="77">
+      <c r="B34" s="75">
         <v>6</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -23758,7 +23761,7 @@
       <c r="A35" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="77">
+      <c r="B35" s="75">
         <v>2</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -23794,7 +23797,7 @@
       <c r="A36" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="77">
+      <c r="B36" s="75">
         <v>1</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -23828,7 +23831,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
-      <c r="B37" s="78"/>
+      <c r="B37" s="76"/>
       <c r="C37" s="21"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -23848,7 +23851,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K1" r:id="rId1" xr:uid="{3F7636C1-8053-4CA6-B24E-7DF1229DF209}"/>
+    <hyperlink ref="K1" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3130447/" xr:uid="{3F7636C1-8053-4CA6-B24E-7DF1229DF209}"/>
     <hyperlink ref="I1" r:id="rId2" xr:uid="{BFB99BBD-8198-456E-A1AC-3BB745473DBB}"/>
     <hyperlink ref="J1" r:id="rId3" xr:uid="{BF0CD3AF-D657-4DAA-BA28-CA9B01B242CB}"/>
     <hyperlink ref="E2" r:id="rId4" xr:uid="{A519A7D5-B146-4C6F-A3D9-1EB0D45587CE}"/>
@@ -23947,7 +23950,7 @@
         <v>58</v>
       </c>
       <c r="I3" s="14"/>
-      <c r="J3" s="73" t="s">
+      <c r="J3" s="71" t="s">
         <v>509</v>
       </c>
       <c r="K3" s="14" t="s">
@@ -24020,11 +24023,11 @@
       </c>
       <c r="I5" s="10"/>
       <c r="K5">
-        <f t="shared" ref="K5:K55" si="0">C5/6718.3</f>
+        <f t="shared" ref="K5:K53" si="0">C5/6718.3</f>
         <v>7.9052736555378589E-2</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L55" si="1">B5/2839</f>
+        <f t="shared" ref="L5:L52" si="1">B5/2839</f>
         <v>0.10073969707643536</v>
       </c>
     </row>
@@ -25467,65 +25470,65 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="74" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+    <row r="3" spans="1:20" s="72" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>542</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="72" t="s">
         <v>539</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="72" t="s">
         <v>552</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="72" t="s">
         <v>546</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="72" t="s">
         <v>547</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="72" t="s">
         <v>548</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="72" t="s">
         <v>549</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="72" t="s">
         <v>550</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="72" t="s">
         <v>538</v>
       </c>
-      <c r="L3" s="74" t="s">
+      <c r="L3" s="72" t="s">
         <v>529</v>
       </c>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="72" t="s">
         <v>530</v>
       </c>
-      <c r="N3" s="74" t="s">
+      <c r="N3" s="72" t="s">
         <v>531</v>
       </c>
-      <c r="O3" s="74" t="s">
+      <c r="O3" s="72" t="s">
         <v>538</v>
       </c>
-      <c r="P3" s="74" t="s">
+      <c r="P3" s="72" t="s">
         <v>529</v>
       </c>
-      <c r="Q3" s="74" t="s">
+      <c r="Q3" s="72" t="s">
         <v>530</v>
       </c>
-      <c r="R3" s="74" t="s">
+      <c r="R3" s="72" t="s">
         <v>531</v>
       </c>
-      <c r="S3" s="74" t="s">
+      <c r="S3" s="72" t="s">
         <v>533</v>
       </c>
-      <c r="T3" s="74" t="s">
+      <c r="T3" s="72" t="s">
         <v>535</v>
       </c>
     </row>
@@ -25834,24 +25837,24 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="89" t="s">
         <v>556</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="97" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="91" t="s">
         <v>557</v>
       </c>
-      <c r="D13" s="98" t="s">
+      <c r="D13" s="92" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="99">
+      <c r="A14" s="82"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="93">
         <v>5.73</v>
       </c>
-      <c r="D14" s="100">
+      <c r="D14" s="94">
         <v>5.59</v>
       </c>
     </row>
@@ -26606,27 +26609,27 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <f>1/(1+10^((B47-5.59)*3.47))</f>
+        <f t="shared" ref="C47:C53" si="18">1/(1+10^((B47-5.59)*3.47))</f>
         <v>3.6407706220262147E-2</v>
       </c>
       <c r="D47">
-        <f>1/(1+10^((B47-5.59)*3.04))</f>
+        <f t="shared" ref="D47:D53" si="19">1/(1+10^((B47-5.59)*3.04))</f>
         <v>5.3659594142994683E-2</v>
       </c>
       <c r="E47">
-        <f>1/(1+10^((B47-5.59)*3.53))</f>
+        <f t="shared" ref="E47:E53" si="20">1/(1+10^((B47-5.59)*3.53))</f>
         <v>3.4471876736166307E-2</v>
       </c>
       <c r="F47">
-        <f>1/(1+10^((B47-5.59)*4.07))</f>
+        <f t="shared" ref="F47:F53" si="21">1/(1+10^((B47-5.59)*4.07))</f>
         <v>2.0993534348967956E-2</v>
       </c>
       <c r="G47">
-        <f>1/(1+10^((B47-5.59)*2.02))</f>
+        <f t="shared" ref="G47:G52" si="22">1/(1+10^((B47-5.59)*2.02))</f>
         <v>0.12931815215578329</v>
       </c>
       <c r="H47">
-        <f>1/(1+10^((B47-5.59)*2.33))</f>
+        <f t="shared" ref="H47:H53" si="23">1/(1+10^((B47-5.59)*2.33))</f>
         <v>9.9781066765725068E-2</v>
       </c>
     </row>
@@ -26635,27 +26638,27 @@
         <v>5.75</v>
       </c>
       <c r="C48">
-        <f>1/(1+10^((B48-5.59)*3.47))</f>
+        <f t="shared" si="18"/>
         <v>0.2178235124274146</v>
       </c>
       <c r="D48">
-        <f>1/(1+10^((B48-5.59)*3.04))</f>
+        <f t="shared" si="19"/>
         <v>0.2460154776403761</v>
       </c>
       <c r="E48">
-        <f>1/(1+10^((B48-5.59)*3.53))</f>
+        <f t="shared" si="20"/>
         <v>0.21408086961961426</v>
       </c>
       <c r="F48">
-        <f>1/(1+10^((B48-5.59)*4.07))</f>
+        <f t="shared" si="21"/>
         <v>0.18250855152230538</v>
       </c>
       <c r="G48">
-        <f>1/(1+10^((B48-5.59)*2.02))</f>
+        <f t="shared" si="22"/>
         <v>0.32208738509452595</v>
       </c>
       <c r="H48">
-        <f>1/(1+10^((B48-5.59)*2.33))</f>
+        <f t="shared" si="23"/>
         <v>0.2976729615926712</v>
       </c>
     </row>
@@ -26664,27 +26667,27 @@
         <v>5.5</v>
       </c>
       <c r="C49">
-        <f>1/(1+10^((B49-5.59)*3.47))</f>
+        <f t="shared" si="18"/>
         <v>0.67240821081565527</v>
       </c>
       <c r="D49">
-        <f>1/(1+10^((B49-5.59)*3.04))</f>
+        <f t="shared" si="19"/>
         <v>0.6524865782930046</v>
       </c>
       <c r="E49">
-        <f>1/(1+10^((B49-5.59)*3.53))</f>
+        <f t="shared" si="20"/>
         <v>0.67514121233666324</v>
       </c>
       <c r="F49">
-        <f>1/(1+10^((B49-5.59)*4.07))</f>
+        <f t="shared" si="21"/>
         <v>0.6991885768637065</v>
       </c>
       <c r="G49">
-        <f>1/(1+10^((B49-5.59)*2.02))</f>
+        <f t="shared" si="22"/>
         <v>0.60315058007268052</v>
       </c>
       <c r="H49">
-        <f>1/(1+10^((B49-5.59)*2.33))</f>
+        <f t="shared" si="23"/>
         <v>0.61842112868142263</v>
       </c>
     </row>
@@ -26693,27 +26696,27 @@
         <v>5.25</v>
       </c>
       <c r="C50">
-        <f>1/(1+10^((B50-5.59)*3.47))</f>
+        <f t="shared" si="18"/>
         <v>0.93799850704618692</v>
       </c>
       <c r="D50">
-        <f>1/(1+10^((B50-5.59)*3.04))</f>
+        <f t="shared" si="19"/>
         <v>0.91528570881754467</v>
       </c>
       <c r="E50">
-        <f>1/(1+10^((B50-5.59)*3.53))</f>
+        <f t="shared" si="20"/>
         <v>0.94067476161292018</v>
       </c>
       <c r="F50">
-        <f>1/(1+10^((B50-5.59)*4.07))</f>
+        <f t="shared" si="21"/>
         <v>0.96031611198396882</v>
       </c>
       <c r="G50">
-        <f>1/(1+10^((B50-5.59)*2.02))</f>
+        <f t="shared" si="22"/>
         <v>0.82940488566345905</v>
       </c>
       <c r="H50">
-        <f>1/(1+10^((B50-5.59)*2.33))</f>
+        <f t="shared" si="23"/>
         <v>0.86105831402848965</v>
       </c>
     </row>
@@ -26722,27 +26725,27 @@
         <v>4.75</v>
       </c>
       <c r="C51">
-        <f>1/(1+10^((B51-5.59)*3.47))</f>
+        <f t="shared" si="18"/>
         <v>0.99878473246817701</v>
       </c>
       <c r="D51">
-        <f>1/(1+10^((B51-5.59)*3.04))</f>
+        <f t="shared" si="19"/>
         <v>0.99721267384886814</v>
       </c>
       <c r="E51">
-        <f>1/(1+10^((B51-5.59)*3.53))</f>
+        <f t="shared" si="20"/>
         <v>0.99891774468341388</v>
       </c>
       <c r="F51">
-        <f>1/(1+10^((B51-5.59)*4.07))</f>
+        <f t="shared" si="21"/>
         <v>0.99961890393847297</v>
       </c>
       <c r="G51">
-        <f>1/(1+10^((B51-5.59)*2.02))</f>
+        <f t="shared" si="22"/>
         <v>0.98029587405577634</v>
       </c>
       <c r="H51">
-        <f>1/(1+10^((B51-5.59)*2.33))</f>
+        <f t="shared" si="23"/>
         <v>0.98908475450670053</v>
       </c>
     </row>
@@ -26751,27 +26754,27 @@
         <v>4.5</v>
       </c>
       <c r="C52">
-        <f>1/(1+10^((B52-5.59)*3.47))</f>
+        <f t="shared" si="18"/>
         <v>0.99983494514185467</v>
       </c>
       <c r="D52">
-        <f>1/(1+10^((B52-5.59)*3.04))</f>
+        <f t="shared" si="19"/>
         <v>0.99951450015130794</v>
       </c>
       <c r="E52">
-        <f>1/(1+10^((B52-5.59)*3.53))</f>
+        <f t="shared" si="20"/>
         <v>0.999858016351165</v>
       </c>
       <c r="F52">
-        <f>1/(1+10^((B52-5.59)*4.07))</f>
+        <f t="shared" si="21"/>
         <v>0.9999633828872676</v>
       </c>
       <c r="G52">
-        <f>1/(1+10^((B52-5.59)*2.02))</f>
+        <f t="shared" si="22"/>
         <v>0.99375575897234902</v>
       </c>
       <c r="H52">
-        <f>1/(1+10^((B52-5.59)*2.33))</f>
+        <f t="shared" si="23"/>
         <v>0.99712228075821918</v>
       </c>
     </row>
@@ -26780,27 +26783,27 @@
         <v>4.25</v>
       </c>
       <c r="C53">
-        <f>1/(1+10^((B53-5.59)*3.47))</f>
+        <f t="shared" si="18"/>
         <v>0.99997760297818616</v>
       </c>
       <c r="D53">
-        <f>1/(1+10^((B53-5.59)*3.04))</f>
+        <f t="shared" si="19"/>
         <v>0.99991559593908752</v>
       </c>
       <c r="E53">
-        <f>1/(1+10^((B53-5.59)*3.53))</f>
+        <f t="shared" si="20"/>
         <v>0.9999813880482985</v>
       </c>
       <c r="F53">
-        <f>1/(1+10^((B53-5.59)*4.07))</f>
+        <f t="shared" si="21"/>
         <v>0.99999648278859699</v>
       </c>
       <c r="G53">
-        <f t="shared" ref="G48:G53" si="18">1/(1+10^((B53-5.73)*2.02))</f>
+        <f t="shared" ref="G53" si="24">1/(1+10^((B53-5.73)*2.02))</f>
         <v>0.99897681207170153</v>
       </c>
       <c r="H53">
-        <f>1/(1+10^((B53-5.59)*2.33))</f>
+        <f t="shared" si="23"/>
         <v>0.99924582463486522</v>
       </c>
     </row>
@@ -26880,27 +26883,27 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:C62" si="19">1/(1+10^((B59-$A$56)*3.24))</f>
+        <f t="shared" ref="C59:C62" si="25">1/(1+10^((B59-$A$56)*3.24))</f>
         <v>2.1990945068637341E-3</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59:D62" si="20">1/(1+10^((B59-$A$56)*3.12))</f>
+        <f t="shared" ref="D59:D62" si="26">1/(1+10^((B59-$A$56)*3.12))</f>
         <v>2.7567735619030741E-3</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59:E62" si="21">1/(1+10^((B59-$A$56)*4.23))</f>
+        <f t="shared" ref="E59:E62" si="27">1/(1+10^((B59-$A$56)*4.23))</f>
         <v>3.3982270439696869E-4</v>
       </c>
       <c r="F59">
-        <f t="shared" ref="F59:F62" si="22">1/(1+10^((B59-$A$56)*4.34))</f>
+        <f t="shared" ref="F59:F62" si="28">1/(1+10^((B59-$A$56)*4.34))</f>
         <v>2.7610868714517421E-4</v>
       </c>
       <c r="G59">
-        <f t="shared" ref="G59:G62" si="23">1/(1+10^((B59-$A$56)*2.61))</f>
+        <f t="shared" ref="G59:G62" si="29">1/(1+10^((B59-$A$56)*2.61))</f>
         <v>7.1889687213112013E-3</v>
       </c>
       <c r="H59">
-        <f t="shared" ref="H59:H62" si="24">1/(1+10^((B59-$A$56)*2.94))</f>
+        <f t="shared" ref="H59:H62" si="30">1/(1+10^((B59-$A$56)*2.94))</f>
         <v>3.8682699499621768E-3</v>
       </c>
     </row>
@@ -26909,27 +26912,27 @@
         <v>6.75</v>
       </c>
       <c r="C60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.4030192065310282E-2</v>
       </c>
       <c r="D60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.6384209483465362E-2</v>
       </c>
       <c r="E60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3.8656090921970381E-3</v>
       </c>
       <c r="F60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>3.3476780358412902E-3</v>
       </c>
       <c r="G60">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>3.1506257562856618E-2</v>
       </c>
       <c r="H60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2.0660147962889439E-2</v>
       </c>
     </row>
@@ -26938,27 +26941,27 @@
         <v>6.5</v>
       </c>
       <c r="C61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>8.4144717143945419E-2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>9.1214024205255401E-2</v>
       </c>
       <c r="E61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>4.2420411791256364E-2</v>
       </c>
       <c r="F61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>3.9247458767000365E-2</v>
       </c>
       <c r="G61">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.12751415307936656</v>
       </c>
       <c r="H61">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.10282042145512539</v>
       </c>
     </row>
@@ -26967,27 +26970,27 @@
         <v>6.25</v>
       </c>
       <c r="C62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.37233179803371713</v>
       </c>
       <c r="D62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.37686302062237481</v>
       </c>
       <c r="E62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.33586069552286596</v>
       </c>
       <c r="F62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.33191747196932375</v>
       </c>
       <c r="G62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.39635349411105558</v>
       </c>
       <c r="H62">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.38370020066670735</v>
       </c>
     </row>
@@ -27025,27 +27028,27 @@
         <v>5.75</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C70" si="25">1/(1+10^((B64-$A$56)*3.24))</f>
+        <f t="shared" ref="C64:C70" si="31">1/(1+10^((B64-$A$56)*3.24))</f>
         <v>0.96113278767350852</v>
       </c>
       <c r="D64">
-        <f t="shared" ref="D64:D70" si="26">1/(1+10^((B64-$A$56)*3.12))</f>
+        <f t="shared" ref="D64:D70" si="32">1/(1+10^((B64-$A$56)*3.12))</f>
         <v>0.95644289131320503</v>
       </c>
       <c r="E64">
-        <f t="shared" ref="E64:E70" si="27">1/(1+10^((B64-$A$56)*4.23))</f>
+        <f t="shared" ref="E64:E70" si="33">1/(1+10^((B64-$A$56)*4.23))</f>
         <v>0.9850528113840723</v>
       </c>
       <c r="F64">
-        <f t="shared" ref="F64:F70" si="28">1/(1+10^((B64-$A$56)*4.34))</f>
+        <f t="shared" ref="F64:F70" si="34">1/(1+10^((B64-$A$56)*4.34))</f>
         <v>0.98657451777605021</v>
       </c>
       <c r="G64">
-        <f t="shared" ref="G64:G70" si="29">1/(1+10^((B64-$A$56)*2.61))</f>
+        <f t="shared" ref="G64:G70" si="35">1/(1+10^((B64-$A$56)*2.61))</f>
         <v>0.92983719927287289</v>
       </c>
       <c r="H64">
-        <f t="shared" ref="H64:H70" si="30">1/(1+10^((B64-$A$56)*2.94))</f>
+        <f t="shared" ref="H64:H70" si="36">1/(1+10^((B64-$A$56)*2.94))</f>
         <v>0.9483840143416824</v>
       </c>
     </row>
@@ -27054,27 +27057,27 @@
         <v>5.5</v>
       </c>
       <c r="C65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.99377573053087387</v>
       </c>
       <c r="D65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.99249881293590958</v>
       </c>
       <c r="E65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.99867253491754948</v>
       </c>
       <c r="F65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.9988823281062541</v>
       </c>
       <c r="G65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.98348166506631385</v>
       </c>
       <c r="H65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.99008093586838053</v>
       </c>
     </row>
@@ -27083,27 +27086,27 @@
         <v>5.25</v>
       </c>
       <c r="C66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.9990308769767331</v>
       </c>
       <c r="D66">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.99874727539502395</v>
       </c>
       <c r="E66">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.99988357414553808</v>
       </c>
       <c r="F66">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.99990800588503093</v>
       </c>
       <c r="G66">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.99627540198283304</v>
       </c>
       <c r="H66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.9981592287339065</v>
       </c>
     </row>
@@ -27112,27 +27115,27 @@
         <v>4.75</v>
       </c>
       <c r="C67">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.99997673034770074</v>
       </c>
       <c r="D67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.9999654550159065</v>
       </c>
       <c r="E67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.99999910648959978</v>
       </c>
       <c r="F67">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.99999937798661553</v>
       </c>
       <c r="G67">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.99981480913288445</v>
       </c>
       <c r="H67">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.99993751541892761</v>
       </c>
     </row>
@@ -27141,27 +27144,27 @@
         <v>4.5</v>
       </c>
       <c r="C68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.99999639588670319</v>
       </c>
       <c r="D68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.99999426679448333</v>
       </c>
       <c r="E68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.99999992172916519</v>
       </c>
       <c r="F68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.99999994885537746</v>
       </c>
       <c r="G68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.99995877296566615</v>
       </c>
       <c r="H68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.99998849742683282</v>
       </c>
     </row>
@@ -27170,27 +27173,27 @@
         <v>4.25</v>
       </c>
       <c r="C69">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.99999944178724276</v>
       </c>
       <c r="D69">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.99999904852016885</v>
       </c>
       <c r="E69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.99999999314353927</v>
       </c>
       <c r="F69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.9999999957946708</v>
       </c>
       <c r="G69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.99999082309967779</v>
       </c>
       <c r="H69">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.99999788261866485</v>
       </c>
     </row>
@@ -27199,27 +27202,27 @@
         <v>4</v>
       </c>
       <c r="C70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.99999991354303963</v>
       </c>
       <c r="D70">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.99999984209352777</v>
       </c>
       <c r="E70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.99999999939937978</v>
       </c>
       <c r="F70">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.99999999965421993</v>
       </c>
       <c r="G70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.99999795732575636</v>
       </c>
       <c r="H70">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.99999961023769868</v>
       </c>
     </row>
@@ -27254,27 +27257,27 @@
         <v>7</v>
       </c>
       <c r="C73">
-        <f t="shared" ref="C73:C76" si="31">1/(1+10^((B73-$A$56)*3.47))</f>
+        <f t="shared" ref="C73:C76" si="37">1/(1+10^((B73-$A$56)*3.47))</f>
         <v>1.4255434292650122E-3</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73:D76" si="32">1/(1+10^((B73-$A$56)*3.04))</f>
+        <f t="shared" ref="D73:D76" si="38">1/(1+10^((B73-$A$56)*3.04))</f>
         <v>3.2048368231257255E-3</v>
       </c>
       <c r="E73">
-        <f t="shared" ref="E73:E76" si="33">1/(1+10^((B73-$A$56)*3.53))</f>
+        <f t="shared" ref="E73:E76" si="39">1/(1+10^((B73-$A$56)*3.53))</f>
         <v>1.2730538291483705E-3</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73:F76" si="34">1/(1+10^((B73-$A$56)*4.07))</f>
+        <f t="shared" ref="F73:F76" si="40">1/(1+10^((B73-$A$56)*4.07))</f>
         <v>4.5962150769907946E-4</v>
       </c>
       <c r="G73">
-        <f t="shared" ref="G73:G76" si="35">1/(1+10^((B73-$A$56)*2.02))</f>
+        <f t="shared" ref="G73:G76" si="41">1/(1+10^((B73-$A$56)*2.02))</f>
         <v>2.1583592211988727E-2</v>
       </c>
       <c r="H73">
-        <f t="shared" ref="H73:H76" si="36">1/(1+10^((B73-$A$56)*2.33))</f>
+        <f t="shared" ref="H73:H76" si="42">1/(1+10^((B73-$A$56)*2.33))</f>
         <v>1.2136596042304673E-2</v>
       </c>
     </row>
@@ -27283,27 +27286,27 @@
         <v>6.75</v>
       </c>
       <c r="C74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>1.0412480697450944E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>1.8165127609807121E-2</v>
       </c>
       <c r="E74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>9.6315634667470118E-3</v>
       </c>
       <c r="F74">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>4.7645931086410511E-3</v>
       </c>
       <c r="G74">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>6.5915303617451015E-2</v>
       </c>
       <c r="H74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>4.4870633206506763E-2</v>
       </c>
     </row>
@@ -27312,27 +27315,27 @@
         <v>6.5</v>
       </c>
       <c r="C75">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>7.197161681465393E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>9.621947416180282E-2</v>
       </c>
       <c r="E75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>6.9074081983497126E-2</v>
       </c>
       <c r="F75">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>4.7476188043686765E-2</v>
       </c>
       <c r="G75">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.18416335172452389</v>
       </c>
       <c r="H75">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0.15228284205098605</v>
       </c>
     </row>
@@ -27341,27 +27344,27 @@
         <v>6.25</v>
       </c>
       <c r="C76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.36370992325168455</v>
       </c>
       <c r="D76">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.37989589801176199</v>
       </c>
       <c r="E76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.36147480833030032</v>
       </c>
       <c r="F76">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.34163726722498927</v>
       </c>
       <c r="G76">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.41931511725392739</v>
       </c>
       <c r="H76">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0.40720023657930299</v>
       </c>
     </row>
@@ -27399,27 +27402,27 @@
         <v>5.75</v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78:C84" si="37">1/(1+10^((B78-5.73)*3.47))</f>
+        <f t="shared" ref="C78:C84" si="43">1/(1+10^((B78-5.73)*3.47))</f>
         <v>0.46013494489295959</v>
       </c>
       <c r="D78">
-        <f t="shared" ref="D78:D84" si="38">1/(1+10^((B78-5.73)*3.04))</f>
+        <f t="shared" ref="D78:D84" si="44">1/(1+10^((B78-5.73)*3.04))</f>
         <v>0.4650577579773511</v>
       </c>
       <c r="E78">
-        <f t="shared" ref="E78:E84" si="39">1/(1+10^((B78-5.73)*3.53))</f>
+        <f t="shared" ref="E78:E84" si="45">1/(1+10^((B78-5.73)*3.53))</f>
         <v>0.45944863658377927</v>
       </c>
       <c r="F78">
-        <f t="shared" ref="F78:F84" si="40">1/(1+10^((B78-5.73)*4.07))</f>
+        <f t="shared" ref="F78:F84" si="46">1/(1+10^((B78-5.73)*4.07))</f>
         <v>0.45327908944899864</v>
       </c>
       <c r="G78">
-        <f t="shared" ref="G78:G84" si="41">1/(1+10^((B78-5.73)*2.02))</f>
+        <f t="shared" ref="G78:G84" si="47">1/(1+10^((B78-5.73)*2.02))</f>
         <v>0.47676064671200391</v>
       </c>
       <c r="H78">
-        <f t="shared" ref="H78:H84" si="42">1/(1+10^((B78-5.73)*2.33))</f>
+        <f t="shared" ref="H78:H84" si="48">1/(1+10^((B78-5.73)*2.33))</f>
         <v>0.47320059140390602</v>
       </c>
     </row>
@@ -27428,27 +27431,27 @@
         <v>5.5</v>
       </c>
       <c r="C79">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.86267565335188401</v>
       </c>
       <c r="D79">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0.83340687376456313</v>
       </c>
       <c r="E79">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.86639680551883813</v>
       </c>
       <c r="F79">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0.89617695288181365</v>
       </c>
       <c r="G79">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>0.74455527235775831</v>
       </c>
       <c r="H79">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.77451010340117699</v>
       </c>
     </row>
@@ -27457,27 +27460,27 @@
         <v>5.25</v>
       </c>
       <c r="C80">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.97885925673435492</v>
       </c>
       <c r="D80">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0.96642857601089271</v>
       </c>
       <c r="E80">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.98018884679402796</v>
       </c>
       <c r="F80">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0.98899489852525868</v>
       </c>
       <c r="G80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>0.9031378622741103</v>
       </c>
       <c r="H80">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.92924907269214008</v>
       </c>
     </row>
@@ -27486,27 +27489,27 @@
         <v>4.75</v>
       </c>
       <c r="C81">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.99960260044426463</v>
       </c>
       <c r="D81">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0.99895204016413863</v>
       </c>
       <c r="E81">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.999652904301083</v>
       </c>
       <c r="F81">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0.99989735083575748</v>
       </c>
       <c r="G81">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>0.98962777626226017</v>
       </c>
       <c r="H81">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.99481982500240973</v>
       </c>
     </row>
@@ -27515,27 +27518,27 @@
         <v>4.5</v>
       </c>
       <c r="C82">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.99994606426822974</v>
       </c>
       <c r="D82">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0.99981772763320431</v>
       </c>
       <c r="E82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.99995449278729232</v>
       </c>
       <c r="F82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0.99999013957310379</v>
       </c>
       <c r="G82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>0.99673427663512926</v>
       </c>
       <c r="H82">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.9986400936608294</v>
       </c>
     </row>
@@ -27544,27 +27547,27 @@
         <v>4.25</v>
       </c>
       <c r="C83">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.99999268192557789</v>
       </c>
       <c r="D83">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0.99996831992206592</v>
       </c>
       <c r="E83">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.99999403517908014</v>
       </c>
       <c r="F83">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0.99999905289181767</v>
       </c>
       <c r="G83">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>0.99897681207170153</v>
       </c>
       <c r="H83">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.99964400379748608</v>
       </c>
     </row>
@@ -27573,27 +27576,27 @@
         <v>4</v>
       </c>
       <c r="C84">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.99999900711358447</v>
       </c>
       <c r="D84">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0.99999449448932598</v>
       </c>
       <c r="E84">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.99999921819280935</v>
       </c>
       <c r="F84">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0.99999990902963021</v>
       </c>
       <c r="G84">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>0.9996799182093361</v>
       </c>
       <c r="H84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.99990687644323795</v>
       </c>
     </row>
@@ -27620,15 +27623,15 @@
   <sheetData>
     <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="18"/>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
     </row>
@@ -27642,11 +27645,11 @@
       <c r="G2" s="58" t="s">
         <v>577</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
       <c r="K2" s="58" t="s">
         <v>111</v>
       </c>
@@ -28130,7 +28133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DA8833-1E52-4DD5-ADCC-0237CE1F0F10}">
   <dimension ref="A1:W202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -49630,7 +49633,7 @@
         <v>42.7</v>
       </c>
       <c r="I99" s="45">
-        <f t="shared" ref="I99:I130" si="3">G99+H99</f>
+        <f t="shared" ref="I99:I102" si="3">G99+H99</f>
         <v>88.4</v>
       </c>
       <c r="J99" s="45">
@@ -56931,7 +56934,7 @@
         <v>33.6</v>
       </c>
       <c r="I99" s="45">
-        <f t="shared" ref="I99:I130" si="3">G99+H99</f>
+        <f t="shared" ref="I99:I102" si="3">G99+H99</f>
         <v>72.599999999999994</v>
       </c>
       <c r="J99" s="45">

--- a/ML_muscle.xlsx
+++ b/ML_muscle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knowakow\MLCE1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBFBFFA-2396-42C1-A0DB-3CE14C6FB73B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DDBCD2-33E5-4A5E-9F4E-6E9810DD16A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="11415" firstSheet="1" activeTab="5" xr2:uid="{82B21A4B-CEC6-4812-A365-675B49A19042}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="11415" firstSheet="2" activeTab="5" xr2:uid="{82B21A4B-CEC6-4812-A365-675B49A19042}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="16" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="631">
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3130447/</t>
   </si>
@@ -2255,6 +2255,12 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>Clamann, Hans Peter</t>
+  </si>
+  <si>
+    <t>All you ever needed to know about each muscle</t>
   </si>
 </sst>
 </file>
@@ -2363,7 +2369,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2403,6 +2409,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2594,7 +2606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2818,16 +2830,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -3785,6 +3808,1180 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Length</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> differences by muscle</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sarcomere length (anatomical)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sarcomere!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>193.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sarcomere!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.2810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0329999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-754A-43CA-AB77-8C50F56FBA05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sarcomere longest position</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sarcomere!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>193.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sarcomere!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.1669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3210000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-754A-43CA-AB77-8C50F56FBA05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Sarcomere shortest position</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sarcomere!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>193.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sarcomere!$F$4:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.482</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.085</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-754A-43CA-AB77-8C50F56FBA05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1185011360"/>
+        <c:axId val="1259115712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1185011360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Length of muscle fibers (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1259115712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1259115712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Length in micrometers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1185011360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sarcomere!$D$5:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.9870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0329999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sarcomere!$K$5:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1353.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2044.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5880.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE7A-4ABA-96E6-CF4251493A46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1154025776"/>
+        <c:axId val="1171254432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1154025776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Sarcomere length (anatomical position)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171254432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1171254432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Maximum</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> force (N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1154025776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3833,7 +5030,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9EAC1A1D-271E-4CE0-B112-8BF8F70F5992}" type="CELLRANGE">
+                    <a:fld id="{852086A3-EE1B-4F96-875B-473F745A55D4}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -3842,7 +5039,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{B616AB7B-E299-4CAD-A854-2855B3B754C9}" type="YVALUE">
+                    <a:fld id="{90B78688-4C4A-4C23-B951-E80BA0C9E8B2}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALEUR Y]</a:t>
@@ -3875,21 +5072,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82C97954-99C8-4672-98D8-2A7D5CF88860}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
+                    <a:fld id="{86A53BEA-7886-4EEF-A157-D2E3176244A1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-CA" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{9548ED32-4DC2-4BC3-A8B6-42EDA42E5D7B}" type="YVALUE">
-                      <a:rPr lang="en-CA" baseline="0"/>
+                    <a:fld id="{5F4FEE5E-BC53-4F03-925B-156A1B95FC39}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALEUR Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4062,7 +5259,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5828CD68-0299-4D0F-988C-752F844A4A34}" type="CELLRANGE">
+                    <a:fld id="{A7E8FF21-4C8D-45ED-8ABD-B43A768B0B9E}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -4071,7 +5268,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{E2E2FFF2-8FA3-4F4E-A957-1F635F0CF9AB}" type="YVALUE">
+                    <a:fld id="{FB4A6047-A691-409F-B471-1ED3936C9E9B}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALEUR Y]</a:t>
@@ -4104,21 +5301,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A8825FB-3096-41BE-BAB7-1A74FE5FE31F}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
+                    <a:fld id="{7E273606-571F-4568-8018-1238E6E70D26}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-CA" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{634B8FAA-7385-40C0-8E80-21247F194F37}" type="YVALUE">
-                      <a:rPr lang="en-CA" baseline="0"/>
+                    <a:fld id="{898458C0-69D6-459F-AD4A-F2D239098EB3}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALEUR Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4277,7 +5474,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6BDE9395-8EEA-4AD6-B619-7AEAA199612A}" type="CELLRANGE">
+                    <a:fld id="{CBD00DD5-F051-45CF-9210-28F0F44FDB67}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -4286,7 +5483,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{3E5E32C1-BBA6-405F-9368-81D0432CCAC6}" type="YVALUE">
+                    <a:fld id="{FBE27511-3BA3-40BE-AAAD-5AAA654C3FE9}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALEUR Y]</a:t>
@@ -4319,21 +5516,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3B7A3C4-1446-4A77-90F7-A10CE5F5028B}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
+                    <a:fld id="{1D1E0460-8ACB-4BF8-B65C-76DC19F833EC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-CA" baseline="0"/>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{F49B4E47-A00B-40A9-8C11-397E64A610AB}" type="YVALUE">
-                      <a:rPr lang="en-CA" baseline="0"/>
+                    <a:fld id="{7C607C77-A323-450A-AFAE-A87238B4867F}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALEUR Y]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA" baseline="0"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4506,7 +5703,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9FDF87EC-5903-4A52-8CA5-A0B1820FA171}" type="CELLRANGE">
+                    <a:fld id="{05D5DB40-5DD3-4F30-8040-03C389E8AFF7}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -4515,7 +5712,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{8F1910F6-200F-432D-8608-76963003F9DA}" type="YVALUE">
+                    <a:fld id="{76D396CE-CAAB-471D-9041-12AE1B4B0308}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALEUR Y]</a:t>
@@ -4554,7 +5751,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E74EF34-EC97-43A2-BEC4-510F42DC3C2A}" type="CELLRANGE">
+                    <a:fld id="{D2E7C2A0-38D2-452B-8AE1-13632A257283}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -4563,7 +5760,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{FB59A94B-53F7-4180-8C23-3287C9D036DE}" type="YVALUE">
+                    <a:fld id="{5A069DC8-23F8-45F3-A279-C2854A0FAAEB}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALEUR Y]</a:t>
@@ -5033,7 +6230,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -9927,6 +11124,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11280,6 +12557,1038 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16256,6 +18565,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>146796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>32496</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6A2BD6-2B1E-4882-92FA-5BD62D126B95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>12325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>88525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Graphique 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3514346-1D4A-4089-A806-552494C25646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16633,10 +19014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B1AC6D-06CB-4097-9517-AD5DEE947FBE}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16879,6 +19260,17 @@
       </c>
       <c r="D19" t="s">
         <v>627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>629</v>
+      </c>
+      <c r="B20">
+        <v>1995</v>
+      </c>
+      <c r="C20" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -17756,14 +20148,14 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
       <c r="J4" s="69" t="s">
@@ -21202,7 +23594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D121BFD-0102-4B22-999E-3F120210C9AD}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
@@ -22137,8 +24529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495FA65C-58A7-4454-B9BE-F7A49D102131}">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25443,7 +27835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3DB490-94C2-47B1-BC92-F820182855E4}">
   <dimension ref="A2:T84"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="95" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="95" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -27610,8 +30002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA66563F-4411-4DE0-BD47-8EB6093E2A4B}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27634,6 +30026,7 @@
       <c r="J1" s="96"/>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C2" s="58" t="s">
@@ -27642,20 +30035,21 @@
       <c r="D2" s="58"/>
       <c r="E2" s="58"/>
       <c r="F2" s="58"/>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="101" t="s">
         <v>577</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="98"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="58" t="s">
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="101" t="s">
         <v>112</v>
       </c>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" s="57" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
@@ -27676,25 +30070,25 @@
       <c r="F3" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="102" t="s">
         <v>526</v>
       </c>
     </row>
@@ -27717,7 +30111,7 @@
       <c r="F4" s="10">
         <v>1.198</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="105">
         <v>3.6</v>
       </c>
       <c r="H4" s="10">
@@ -27758,7 +30152,7 @@
       <c r="F5" s="10">
         <v>2.2280000000000002</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="105">
         <v>5</v>
       </c>
       <c r="H5" s="10">
@@ -27801,7 +30195,7 @@
       <c r="F6" s="10">
         <v>1.482</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="105">
         <v>17</v>
       </c>
       <c r="H6" s="10">
@@ -27844,7 +30238,7 @@
       <c r="F7" s="10">
         <v>1.365</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="105">
         <v>16.7</v>
       </c>
       <c r="H7" s="10">
@@ -27886,7 +30280,7 @@
       <c r="F8" s="10">
         <v>1.988</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="105">
         <v>14.3</v>
       </c>
       <c r="H8" s="10">
@@ -27928,7 +30322,7 @@
       <c r="F9" s="10">
         <v>2.0710000000000002</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="105">
         <v>12.7</v>
       </c>
       <c r="H9" s="10">
@@ -27970,7 +30364,7 @@
       <c r="F10" s="10">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="105">
         <v>16.7</v>
       </c>
       <c r="H10" s="10">
@@ -28012,7 +30406,7 @@
       <c r="F11" s="10">
         <v>1.085</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="105">
         <v>7.3</v>
       </c>
       <c r="H11" s="10">
@@ -28054,7 +30448,7 @@
       <c r="F12" s="10">
         <v>1.012</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="105">
         <v>10.7</v>
       </c>
       <c r="H12" s="10">
@@ -28096,7 +30490,7 @@
       <c r="F13" s="10">
         <v>1.26</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="105">
         <v>19.3</v>
       </c>
       <c r="H13" s="10">
@@ -28133,7 +30527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DA8833-1E52-4DD5-ADCC-0237CE1F0F10}">
   <dimension ref="A1:W202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
